--- a/StructureDefinition-ext-R5-SubstanceDefinition.structure.xlsx
+++ b/StructureDefinition-ext-R5-SubstanceDefinition.structure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -413,7 +413,7 @@
     <t>The optical rotation type of a substance.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-substance-stereochemistry-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-substance-stereochemistry-for-R4</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -454,7 +454,7 @@
     <t>Extension.extension:opticalActivity.value[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-substance-optical-activity-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-substance-optical-activity-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:molecularFormula</t>
@@ -594,7 +594,7 @@
     <t>The method used to elucidate the structure of the drug substance.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-substance-structure-technique-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-substance-structure-technique-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:sourceDocument</t>
@@ -629,7 +629,7 @@
     <t>Extension.extension:sourceDocument.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-DocumentReference-for-Media|0.0.1-snapshot-3|Media|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-DocumentReference-for-Media|Media)
 </t>
   </si>
   <si>
@@ -701,7 +701,7 @@
     <t>A format of a substance representation.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-substance-representation-type-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-substance-representation-type-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:representation.extension:representation</t>
@@ -763,7 +763,7 @@
     <t>Extension.extension:representation.extension:format.value[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-substance-representation-format-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-substance-representation-format-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:representation.extension:document</t>
@@ -1155,7 +1155,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="54.234375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="84.578125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="66.08203125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
